--- a/StatusCheckbook.xlsx
+++ b/StatusCheckbook.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monke\Pictures\Working Files\Macabre III Sprites JX\My Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monke\Pictures\Working Files\Macabre\Macabre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21645" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21645" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
-  <si>
-    <t>Character Sheets</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="59">
   <si>
     <t>Character</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>AnneTheCarpenter</t>
   </si>
   <si>
@@ -110,17 +105,113 @@
     <t>Complete</t>
   </si>
   <si>
-    <t>Character Designed</t>
-  </si>
-  <si>
     <t>BeatriceTheApprentice</t>
+  </si>
+  <si>
+    <t>AnimationLines</t>
+  </si>
+  <si>
+    <t>AnimationColored</t>
+  </si>
+  <si>
+    <t>AnimationShaded</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Sit</t>
+  </si>
+  <si>
+    <t>AdditionalAnimations</t>
+  </si>
+  <si>
+    <t>HoldLantern</t>
+  </si>
+  <si>
+    <t>Eating Rats</t>
+  </si>
+  <si>
+    <t>HoldBaby</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>HatRemove</t>
+  </si>
+  <si>
+    <t>GroundPickup</t>
+  </si>
+  <si>
+    <t>Interact</t>
+  </si>
+  <si>
+    <t>Structures List</t>
+  </si>
+  <si>
+    <t>Blacksmith</t>
+  </si>
+  <si>
+    <t>Manor House 1</t>
+  </si>
+  <si>
+    <t>Manor House 2</t>
+  </si>
+  <si>
+    <t>Manor House 3</t>
+  </si>
+  <si>
+    <t>Bakery</t>
+  </si>
+  <si>
+    <t>Church</t>
+  </si>
+  <si>
+    <t>Shack</t>
+  </si>
+  <si>
+    <t>Customs House</t>
+  </si>
+  <si>
+    <t>Inn</t>
+  </si>
+  <si>
+    <t>Vinyard</t>
+  </si>
+  <si>
+    <t>Guardhouse</t>
+  </si>
+  <si>
+    <t>Cluster A</t>
+  </si>
+  <si>
+    <t>Cluster B</t>
+  </si>
+  <si>
+    <t>Cluster C</t>
+  </si>
+  <si>
+    <t>Cluster E</t>
+  </si>
+  <si>
+    <t>Cluster F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,15 +226,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,13 +239,8 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -174,8 +253,10 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thick">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -183,6 +264,81 @@
     <border>
       <left/>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
         <color auto="1"/>
       </right>
       <top/>
@@ -192,7 +348,264 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color auto="1"/>
       </left>
       <right/>
@@ -201,16 +614,7 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="thick">
         <color auto="1"/>
       </left>
       <right/>
@@ -221,67 +625,105 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -594,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C28"/>
+  <dimension ref="B1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,227 +1047,1157 @@
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="13" max="17" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="33"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="34"/>
+    </row>
+    <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-    </row>
-    <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="16"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="18"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="23"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="23"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="22"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="23"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="22"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="23"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="22"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="23"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="38" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="C10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="22"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="23"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="C11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="23"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="22"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="23"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="24"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="23"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="22"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="23"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="23"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="22"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="23"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="24"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="23"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="24"/>
+      <c r="M18" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="23"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="23"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="22"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="23"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="22"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="23"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="24"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="23"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="22"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="23"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="22"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="23"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="22"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="23"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="22"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="23"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="23"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
+      <c r="C28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="23"/>
+    </row>
+    <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="N29" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="O29" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="49"/>
+    </row>
+    <row r="30" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="5">
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>